--- a/Code/Results/Cases/Case_1_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.205133730541036</v>
+        <v>1.720414177533826</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7889563907826869</v>
+        <v>0.2556391291964246</v>
       </c>
       <c r="E2">
-        <v>0.6798160387490668</v>
+        <v>0.1906768770469398</v>
       </c>
       <c r="F2">
-        <v>4.241551327981711</v>
+        <v>5.130640175018812</v>
       </c>
       <c r="G2">
-        <v>0.0007877166064882424</v>
+        <v>0.002656722786199202</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8614126880934805</v>
+        <v>1.838950559567508</v>
       </c>
       <c r="J2">
-        <v>0.7701135267288919</v>
+        <v>0.2146172273668157</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.089791645368251</v>
+        <v>1.467174508564312</v>
       </c>
       <c r="M2">
-        <v>1.061600803262706</v>
+        <v>0.7833411743702641</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.920195633845879</v>
+        <v>1.656119734008541</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6704696628580109</v>
+        <v>0.2286217290598529</v>
       </c>
       <c r="E3">
-        <v>0.5803409415669023</v>
+        <v>0.1660768893720856</v>
       </c>
       <c r="F3">
-        <v>3.843694384377443</v>
+        <v>5.08843259718833</v>
       </c>
       <c r="G3">
-        <v>0.0008042921420383659</v>
+        <v>0.002666407169980712</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8707162786602751</v>
+        <v>1.856752350397834</v>
       </c>
       <c r="J3">
-        <v>0.6629482915859484</v>
+        <v>0.1867347197371316</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.811502519093295</v>
+        <v>1.410391977242938</v>
       </c>
       <c r="M3">
-        <v>0.9223419163226581</v>
+        <v>0.7535588197654022</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.748813127540046</v>
+        <v>1.617502453288012</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6005427590201293</v>
+        <v>0.2122036632750337</v>
       </c>
       <c r="E4">
-        <v>0.5210904639539748</v>
+        <v>0.1510194226303057</v>
       </c>
       <c r="F4">
-        <v>3.615360161042048</v>
+        <v>5.066091950222443</v>
       </c>
       <c r="G4">
-        <v>0.0008146165902662858</v>
+        <v>0.002672656551162513</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8794403321268902</v>
+        <v>1.868695312051365</v>
       </c>
       <c r="J4">
-        <v>0.5987706614800885</v>
+        <v>0.169606629061505</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.646090049912232</v>
+        <v>1.376446356163939</v>
       </c>
       <c r="M4">
-        <v>0.8390878865207867</v>
+        <v>0.7357146997863424</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.679732386523966</v>
+        <v>1.601981403824141</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5726360154409917</v>
+        <v>0.2055542126355761</v>
       </c>
       <c r="E5">
-        <v>0.4973202355705766</v>
+        <v>0.1448940402937637</v>
       </c>
       <c r="F5">
-        <v>3.525804041585843</v>
+        <v>5.05787896226758</v>
       </c>
       <c r="G5">
-        <v>0.0008188684586269979</v>
+        <v>0.002675279776920032</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8836855894124369</v>
+        <v>1.873815549216999</v>
       </c>
       <c r="J5">
-        <v>0.5729455278946602</v>
+        <v>0.1626237854456463</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.579840254935334</v>
+        <v>1.362842012534827</v>
       </c>
       <c r="M5">
-        <v>0.8056392147971678</v>
+        <v>0.7285536105984676</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.668303716648609</v>
+        <v>1.599417169398066</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5680344905781851</v>
+        <v>0.2044525008370215</v>
       </c>
       <c r="E6">
-        <v>0.4933936037896984</v>
+        <v>0.1438775352558821</v>
       </c>
       <c r="F6">
-        <v>3.511130400509529</v>
+        <v>5.056568786476817</v>
       </c>
       <c r="G6">
-        <v>0.0008195773726852359</v>
+        <v>0.002675719994675727</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.884430397469437</v>
+        <v>1.874681028379626</v>
       </c>
       <c r="J6">
-        <v>0.5686749617710234</v>
+        <v>0.1614640801816449</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.568903693860278</v>
+        <v>1.360596771963628</v>
       </c>
       <c r="M6">
-        <v>0.8001116131414676</v>
+        <v>0.7273711733311501</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.747878577224185</v>
+        <v>1.61729225766166</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6001641611274238</v>
+        <v>0.2121138227426513</v>
       </c>
       <c r="E7">
-        <v>0.5207684755878859</v>
+        <v>0.1509367719559336</v>
       </c>
       <c r="F7">
-        <v>3.614138870809512</v>
+        <v>5.065977589732626</v>
       </c>
       <c r="G7">
-        <v>0.0008146737425916585</v>
+        <v>0.00267269161863071</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8794948730989347</v>
+        <v>1.86876334104327</v>
       </c>
       <c r="J7">
-        <v>0.5984211448240586</v>
+        <v>0.1695124694280992</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.645192159229907</v>
+        <v>1.376261959971373</v>
       </c>
       <c r="M7">
-        <v>0.8386349581368648</v>
+        <v>0.7356176761848729</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.106056104794163</v>
+        <v>1.698066732295615</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.747436962924013</v>
+        <v>0.246286943371274</v>
       </c>
       <c r="E8">
-        <v>0.6450824258318306</v>
+        <v>0.1821843247831936</v>
       </c>
       <c r="F8">
-        <v>4.10072253505075</v>
+        <v>5.115340168877538</v>
       </c>
       <c r="G8">
-        <v>0.0007934062769693446</v>
+        <v>0.002659999244843655</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8639520899348483</v>
+        <v>1.844877704620856</v>
       </c>
       <c r="J8">
-        <v>0.7327739494569272</v>
+        <v>0.2050044269085873</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.992564699165484</v>
+        <v>1.447403687709141</v>
       </c>
       <c r="M8">
-        <v>1.013059848403806</v>
+        <v>0.7729799625777574</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.844284022443901</v>
+        <v>1.863317857506331</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.065324095613875</v>
+        <v>0.3147443468033941</v>
       </c>
       <c r="E9">
-        <v>0.9080379743908082</v>
+        <v>0.2438902338305695</v>
       </c>
       <c r="F9">
-        <v>5.209748713787292</v>
+        <v>5.240880509278497</v>
       </c>
       <c r="G9">
-        <v>0.0007524529610500874</v>
+        <v>0.00263749975258265</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8609862005209905</v>
+        <v>1.806128663734825</v>
       </c>
       <c r="J9">
-        <v>1.013538492949863</v>
+        <v>0.2745874686203251</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.728846991780983</v>
+        <v>1.594322113465978</v>
       </c>
       <c r="M9">
-        <v>1.37776903909527</v>
+        <v>0.8497950409376074</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.421569546775743</v>
+        <v>1.988967177205495</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.328515047713609</v>
+        <v>0.3660503961091024</v>
       </c>
       <c r="E10">
-        <v>1.121270530449308</v>
+        <v>0.2895711167915067</v>
       </c>
       <c r="F10">
-        <v>6.168662104037992</v>
+        <v>5.351178513035023</v>
       </c>
       <c r="G10">
-        <v>0.0007220937675498362</v>
+        <v>0.002622405438287998</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8818706271916454</v>
+        <v>1.782670175959083</v>
       </c>
       <c r="J10">
-        <v>1.238276555171609</v>
+        <v>0.325772487748111</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.32416894409937</v>
+        <v>1.706959725180013</v>
       </c>
       <c r="M10">
-        <v>1.667954549219104</v>
+        <v>0.9084550999932191</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.695723624265099</v>
+        <v>2.047064447341143</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.458427697340255</v>
+        <v>0.3896393261319986</v>
       </c>
       <c r="E11">
-        <v>1.225253708409284</v>
+        <v>0.3104464408892795</v>
       </c>
       <c r="F11">
-        <v>6.651539104742483</v>
+        <v>5.40539950534523</v>
       </c>
       <c r="G11">
-        <v>0.0007079982885022018</v>
+        <v>0.002615845924408952</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.898297405320811</v>
+        <v>1.773103490561226</v>
       </c>
       <c r="J11">
-        <v>1.347015776097606</v>
+        <v>0.349087928938701</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.613242571012506</v>
+        <v>1.759262487474814</v>
       </c>
       <c r="M11">
-        <v>1.807378399958736</v>
+        <v>0.9356383698185056</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.801644390285844</v>
+        <v>2.069200420650191</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.50952431668054</v>
+        <v>0.3986100640087216</v>
       </c>
       <c r="E12">
-        <v>1.265940370067781</v>
+        <v>0.3183665221715302</v>
       </c>
       <c r="F12">
-        <v>6.842867908436943</v>
+        <v>5.426523238668494</v>
       </c>
       <c r="G12">
-        <v>0.000702593740021982</v>
+        <v>0.002613405793262906</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9057324537346219</v>
+        <v>1.769641151853328</v>
       </c>
       <c r="J12">
-        <v>1.389418907300382</v>
+        <v>0.3579226480383397</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.726074551851752</v>
+        <v>1.779224317406204</v>
       </c>
       <c r="M12">
-        <v>1.861536285501074</v>
+        <v>0.9460047383996368</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.778730374137638</v>
+        <v>2.064426989430899</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.4984266908927</v>
+        <v>0.3966763234338373</v>
       </c>
       <c r="E13">
-        <v>1.257113533590257</v>
+        <v>0.3166600988098196</v>
       </c>
       <c r="F13">
-        <v>6.801250983754926</v>
+        <v>5.42194740543033</v>
       </c>
       <c r="G13">
-        <v>0.0007037611820158696</v>
+        <v>0.002613929375612408</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9040729773557885</v>
+        <v>1.770379672268184</v>
       </c>
       <c r="J13">
-        <v>1.380226465315388</v>
+        <v>0.3560196617370934</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.701610181517424</v>
+        <v>1.774918197149418</v>
       </c>
       <c r="M13">
-        <v>1.849806224132394</v>
+        <v>0.9437689082235607</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.70439260363122</v>
+        <v>2.048882860712297</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.462590334556438</v>
+        <v>0.3903765771088104</v>
       </c>
       <c r="E14">
-        <v>1.228572653699416</v>
+        <v>0.3110977209281316</v>
       </c>
       <c r="F14">
-        <v>6.66709798053796</v>
+        <v>5.407125458721566</v>
       </c>
       <c r="G14">
-        <v>0.0007075551710803847</v>
+        <v>0.00261564429705872</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8988832654408654</v>
+        <v>1.772815419369913</v>
       </c>
       <c r="J14">
-        <v>1.350477739350879</v>
+        <v>0.3498146460365774</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.622452807888806</v>
+        <v>1.760901617023364</v>
       </c>
       <c r="M14">
-        <v>1.811804719202229</v>
+        <v>0.9364897553946037</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.659148015342737</v>
+        <v>2.039379343142798</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.440902489230325</v>
+        <v>0.3865228325013845</v>
       </c>
       <c r="E15">
-        <v>1.211271954600988</v>
+        <v>0.307692606172921</v>
       </c>
       <c r="F15">
-        <v>6.586090368148945</v>
+        <v>5.398123898293875</v>
       </c>
       <c r="G15">
-        <v>0.000709869482109271</v>
+        <v>0.002616700432191975</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8958701708878465</v>
+        <v>1.77432831312359</v>
       </c>
       <c r="J15">
-        <v>1.332425635488505</v>
+        <v>0.3460146689081114</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.574430811839022</v>
+        <v>1.752336451797078</v>
       </c>
       <c r="M15">
-        <v>1.788715190992065</v>
+        <v>0.9320405553417714</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.403920475483005</v>
+        <v>1.985189341355465</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.320264271522348</v>
+        <v>0.3645140156714319</v>
       </c>
       <c r="E16">
-        <v>1.1146395912793</v>
+        <v>0.288208893602615</v>
       </c>
       <c r="F16">
-        <v>6.138183181090682</v>
+        <v>5.347717275051679</v>
       </c>
       <c r="G16">
-        <v>0.0007230071618560442</v>
+        <v>0.002622840266987935</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8809537762201458</v>
+        <v>1.783317738596693</v>
       </c>
       <c r="J16">
-        <v>1.23132393598749</v>
+        <v>0.3242494960892941</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.305703150347085</v>
+        <v>1.703563268050232</v>
       </c>
       <c r="M16">
-        <v>1.659015407957256</v>
+        <v>0.9066887225358045</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.250583024359173</v>
+        <v>1.952186518965618</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.249136681273058</v>
+        <v>0.3510778103673431</v>
       </c>
       <c r="E17">
-        <v>1.057337412450622</v>
+        <v>0.2762815529096656</v>
       </c>
       <c r="F17">
-        <v>5.876460025607315</v>
+        <v>5.317837471460507</v>
       </c>
       <c r="G17">
-        <v>0.0007309775525292116</v>
+        <v>0.002626685245838953</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8737141961471693</v>
+        <v>1.789116460941457</v>
       </c>
       <c r="J17">
-        <v>1.171147732618522</v>
+        <v>0.3109060741729479</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.145986207790202</v>
+        <v>1.673916950369517</v>
       </c>
       <c r="M17">
-        <v>1.581532895803917</v>
+        <v>0.8912645507844701</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.163441418448201</v>
+        <v>1.933292476535428</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.209152232614827</v>
+        <v>0.3433730124024805</v>
       </c>
       <c r="E18">
-        <v>1.025013170980699</v>
+        <v>0.2694301042243978</v>
       </c>
       <c r="F18">
-        <v>5.730185726068498</v>
+        <v>5.301031626929671</v>
       </c>
       <c r="G18">
-        <v>0.0007355370079440426</v>
+        <v>0.002628925688631005</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8701860731304905</v>
+        <v>1.792555620699829</v>
       </c>
       <c r="J18">
-        <v>1.137126622516604</v>
+        <v>0.3032341461906185</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.055785136454972</v>
+        <v>1.656965074039192</v>
       </c>
       <c r="M18">
-        <v>1.537643446871996</v>
+        <v>0.8824398370779249</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.134106165281082</v>
+        <v>1.926910422122432</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.195762026446545</v>
+        <v>0.3407682436353809</v>
       </c>
       <c r="E19">
-        <v>1.014169820137923</v>
+        <v>0.2671117978243416</v>
       </c>
       <c r="F19">
-        <v>5.681345990401979</v>
+        <v>5.295406471438014</v>
       </c>
       <c r="G19">
-        <v>0.0007370771554928531</v>
+        <v>0.002629689239783388</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8690950252110028</v>
+        <v>1.793737858563723</v>
       </c>
       <c r="J19">
-        <v>1.125701625424909</v>
+        <v>0.3006370179234352</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.025511185066819</v>
+        <v>1.651242528431908</v>
       </c>
       <c r="M19">
-        <v>1.522891750169194</v>
+        <v>0.879459960440343</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.266794133576639</v>
+        <v>1.955690580611645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.256609723249056</v>
+        <v>0.3525056844835603</v>
       </c>
       <c r="E20">
-        <v>1.063369736735552</v>
+        <v>0.2775503134753023</v>
       </c>
       <c r="F20">
-        <v>5.90386864220855</v>
+        <v>5.320978806361751</v>
       </c>
       <c r="G20">
-        <v>0.0007301318321866218</v>
+        <v>0.002626272951219644</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8744176595259958</v>
+        <v>1.788488414231644</v>
       </c>
       <c r="J20">
-        <v>1.177490635082336</v>
+        <v>0.3123262001780347</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.162811458935153</v>
+        <v>1.677062490673791</v>
       </c>
       <c r="M20">
-        <v>1.589709163288163</v>
+        <v>0.8929016232951454</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.7261661060611</v>
+        <v>2.053444855795021</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.473060554484562</v>
+        <v>0.3922259126017877</v>
       </c>
       <c r="E21">
-        <v>1.236917303444656</v>
+        <v>0.3127311063009586</v>
       </c>
       <c r="F21">
-        <v>6.706255245743023</v>
+        <v>5.411462894934346</v>
       </c>
       <c r="G21">
-        <v>0.0007064428466530484</v>
+        <v>0.002615139396597033</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9003725810995888</v>
+        <v>1.772095617233838</v>
       </c>
       <c r="J21">
-        <v>1.359179608413996</v>
+        <v>0.3516370460450275</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.645604854564624</v>
+        <v>1.765014370604433</v>
       </c>
       <c r="M21">
-        <v>1.82292695310386</v>
+        <v>0.9386258392716087</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.038969608118805</v>
+        <v>2.118124888788543</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.625923828417683</v>
+        <v>0.4184086587806064</v>
       </c>
       <c r="E22">
-        <v>1.358201341779136</v>
+        <v>0.3358121877663933</v>
       </c>
       <c r="F22">
-        <v>7.281308812354695</v>
+        <v>5.474051356361997</v>
       </c>
       <c r="G22">
-        <v>0.0006905522503739115</v>
+        <v>0.00260811820665057</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9245689829499923</v>
+        <v>1.762317379202429</v>
       </c>
       <c r="J22">
-        <v>1.485280311178798</v>
+        <v>0.3773625729341461</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.981286759562977</v>
+        <v>1.823406234252786</v>
       </c>
       <c r="M22">
-        <v>1.983490226167177</v>
+        <v>0.9689332239654362</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.870686321758399</v>
+        <v>2.083531187186281</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.543110539887522</v>
+        <v>0.4044132510923362</v>
       </c>
       <c r="E23">
-        <v>1.292621320348331</v>
+        <v>0.3234848160397945</v>
       </c>
       <c r="F23">
-        <v>6.969021758815586</v>
+        <v>5.440327629693627</v>
       </c>
       <c r="G23">
-        <v>0.0006990815830879086</v>
+        <v>0.002611842302293347</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.910902481211771</v>
+        <v>1.767450115844809</v>
       </c>
       <c r="J23">
-        <v>1.417182343874543</v>
+        <v>0.3636288947773494</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.799974058705175</v>
+        <v>1.792157092651223</v>
       </c>
       <c r="M23">
-        <v>1.896927150673235</v>
+        <v>0.9527184776652575</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.259461964005538</v>
+        <v>1.954106146091476</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.253228364476996</v>
+        <v>0.3518600809194652</v>
       </c>
       <c r="E24">
-        <v>1.060640614888712</v>
+        <v>0.2769766890558429</v>
       </c>
       <c r="F24">
-        <v>5.891464269175572</v>
+        <v>5.319557449472001</v>
       </c>
       <c r="G24">
-        <v>0.0007305142516740838</v>
+        <v>0.002626459256317635</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8740976645110479</v>
+        <v>1.788772025974403</v>
       </c>
       <c r="J24">
-        <v>1.174621238494041</v>
+        <v>0.3116841632222247</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.155199762322411</v>
+        <v>1.675640104987338</v>
       </c>
       <c r="M24">
-        <v>1.586010649556144</v>
+        <v>0.8921613694234054</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.639552094852945</v>
+        <v>1.817873305011631</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.9751506589146572</v>
+        <v>0.296056934676642</v>
       </c>
       <c r="E25">
-        <v>0.8341037341555477</v>
+        <v>0.22714263938893</v>
       </c>
       <c r="F25">
-        <v>4.888679275067915</v>
+        <v>5.203786272845974</v>
       </c>
       <c r="G25">
-        <v>0.0007635169846323845</v>
+        <v>0.002643332748179515</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8582741875310518</v>
+        <v>1.815737149650822</v>
       </c>
       <c r="J25">
-        <v>0.9350263777037071</v>
+        <v>0.2557578240414955</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.521898101021122</v>
+        <v>1.553765317977394</v>
       </c>
       <c r="M25">
-        <v>1.275920273241454</v>
+        <v>0.828628536793758</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.720414177533826</v>
+        <v>2.205133730541149</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2556391291964246</v>
+        <v>0.78895639078263</v>
       </c>
       <c r="E2">
-        <v>0.1906768770469398</v>
+        <v>0.6798160387491237</v>
       </c>
       <c r="F2">
-        <v>5.130640175018812</v>
+        <v>4.241551327981739</v>
       </c>
       <c r="G2">
-        <v>0.002656722786199202</v>
+        <v>0.0007877166064284209</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.838950559567508</v>
+        <v>0.8614126880935018</v>
       </c>
       <c r="J2">
-        <v>0.2146172273668157</v>
+        <v>0.7701135267288777</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.467174508564312</v>
+        <v>2.089791645368251</v>
       </c>
       <c r="M2">
-        <v>0.7833411743702641</v>
+        <v>1.061600803262706</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.656119734008541</v>
+        <v>1.920195633846106</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2286217290598529</v>
+        <v>0.670469662857812</v>
       </c>
       <c r="E3">
-        <v>0.1660768893720856</v>
+        <v>0.580340941566952</v>
       </c>
       <c r="F3">
-        <v>5.08843259718833</v>
+        <v>3.843694384377443</v>
       </c>
       <c r="G3">
-        <v>0.002666407169980712</v>
+        <v>0.0008042921421145976</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.856752350397834</v>
+        <v>0.8707162786602467</v>
       </c>
       <c r="J3">
-        <v>0.1867347197371316</v>
+        <v>0.6629482915859626</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.410391977242938</v>
+        <v>1.811502519093438</v>
       </c>
       <c r="M3">
-        <v>0.7535588197654022</v>
+        <v>0.9223419163226509</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.617502453288012</v>
+        <v>1.74881312754016</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2122036632750337</v>
+        <v>0.6005427590201577</v>
       </c>
       <c r="E4">
-        <v>0.1510194226303057</v>
+        <v>0.5210904639539677</v>
       </c>
       <c r="F4">
-        <v>5.066091950222443</v>
+        <v>3.615360161042105</v>
       </c>
       <c r="G4">
-        <v>0.002672656551162513</v>
+        <v>0.000814616590193884</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.868695312051365</v>
+        <v>0.8794403321269257</v>
       </c>
       <c r="J4">
-        <v>0.169606629061505</v>
+        <v>0.5987706614801027</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.376446356163939</v>
+        <v>1.64609004991226</v>
       </c>
       <c r="M4">
-        <v>0.7357146997863424</v>
+        <v>0.8390878865207867</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.601981403824141</v>
+        <v>1.679732386523654</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2055542126355761</v>
+        <v>0.5726360154411907</v>
       </c>
       <c r="E5">
-        <v>0.1448940402937637</v>
+        <v>0.4973202355705766</v>
       </c>
       <c r="F5">
-        <v>5.05787896226758</v>
+        <v>3.525804041585843</v>
       </c>
       <c r="G5">
-        <v>0.002675279776920032</v>
+        <v>0.0008188684586221841</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.873815549216999</v>
+        <v>0.8836855894124298</v>
       </c>
       <c r="J5">
-        <v>0.1626237854456463</v>
+        <v>0.5729455278945892</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.362842012534827</v>
+        <v>1.579840254935306</v>
       </c>
       <c r="M5">
-        <v>0.7285536105984676</v>
+        <v>0.8056392147971607</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.599417169398066</v>
+        <v>1.668303716648637</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2044525008370215</v>
+        <v>0.5680344905780146</v>
       </c>
       <c r="E6">
-        <v>0.1438775352558821</v>
+        <v>0.4933936037897126</v>
       </c>
       <c r="F6">
-        <v>5.056568786476817</v>
+        <v>3.511130400509586</v>
       </c>
       <c r="G6">
-        <v>0.002675719994675727</v>
+        <v>0.000819577372889194</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.874681028379626</v>
+        <v>0.884430397469437</v>
       </c>
       <c r="J6">
-        <v>0.1614640801816449</v>
+        <v>0.5686749617711513</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.360596771963628</v>
+        <v>1.568903693860165</v>
       </c>
       <c r="M6">
-        <v>0.7273711733311501</v>
+        <v>0.8001116131414747</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.61729225766166</v>
+        <v>1.747878577224242</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2121138227426513</v>
+        <v>0.6001641611273101</v>
       </c>
       <c r="E7">
-        <v>0.1509367719559336</v>
+        <v>0.5207684755878432</v>
       </c>
       <c r="F7">
-        <v>5.065977589732626</v>
+        <v>3.614138870809484</v>
       </c>
       <c r="G7">
-        <v>0.00267269161863071</v>
+        <v>0.0008146737426451661</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.86876334104327</v>
+        <v>0.8794948730989063</v>
       </c>
       <c r="J7">
-        <v>0.1695124694280992</v>
+        <v>0.5984211448239591</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.376261959971373</v>
+        <v>1.645192159230021</v>
       </c>
       <c r="M7">
-        <v>0.7356176761848729</v>
+        <v>0.8386349581368364</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.698066732295615</v>
+        <v>2.10605610479422</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.246286943371274</v>
+        <v>0.7474369629239845</v>
       </c>
       <c r="E8">
-        <v>0.1821843247831936</v>
+        <v>0.6450824258318022</v>
       </c>
       <c r="F8">
-        <v>5.115340168877538</v>
+        <v>4.10072253505075</v>
       </c>
       <c r="G8">
-        <v>0.002659999244843655</v>
+        <v>0.0007934062769406085</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.844877704620856</v>
+        <v>0.863952089934827</v>
       </c>
       <c r="J8">
-        <v>0.2050044269085873</v>
+        <v>0.7327739494569556</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.447403687709141</v>
+        <v>1.992564699165371</v>
       </c>
       <c r="M8">
-        <v>0.7729799625777574</v>
+        <v>1.013059848403792</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.863317857506331</v>
+        <v>2.844284022443958</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3147443468033941</v>
+        <v>1.065324095613875</v>
       </c>
       <c r="E9">
-        <v>0.2438902338305695</v>
+        <v>0.9080379743907798</v>
       </c>
       <c r="F9">
-        <v>5.240880509278497</v>
+        <v>5.209748713787292</v>
       </c>
       <c r="G9">
-        <v>0.00263749975258265</v>
+        <v>0.0007524529611063184</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.806128663734825</v>
+        <v>0.8609862005209905</v>
       </c>
       <c r="J9">
-        <v>0.2745874686203251</v>
+        <v>1.013538492949863</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.594322113465978</v>
+        <v>2.728846991780983</v>
       </c>
       <c r="M9">
-        <v>0.8497950409376074</v>
+        <v>1.377769039095242</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.988967177205495</v>
+        <v>3.421569546775686</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3660503961091024</v>
+        <v>1.328515047713239</v>
       </c>
       <c r="E10">
-        <v>0.2895711167915067</v>
+        <v>1.121270530449394</v>
       </c>
       <c r="F10">
-        <v>5.351178513035023</v>
+        <v>6.16866210403802</v>
       </c>
       <c r="G10">
-        <v>0.002622405438287998</v>
+        <v>0.0007220937673385279</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.782670175959083</v>
+        <v>0.8818706271916454</v>
       </c>
       <c r="J10">
-        <v>0.325772487748111</v>
+        <v>1.238276555171552</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.706959725180013</v>
+        <v>3.324168944099199</v>
       </c>
       <c r="M10">
-        <v>0.9084550999932191</v>
+        <v>1.66795454921909</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.047064447341143</v>
+        <v>3.695723624265042</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3896393261319986</v>
+        <v>1.458427697340056</v>
       </c>
       <c r="E11">
-        <v>0.3104464408892795</v>
+        <v>1.225253708409227</v>
       </c>
       <c r="F11">
-        <v>5.40539950534523</v>
+        <v>6.651539104742454</v>
       </c>
       <c r="G11">
-        <v>0.002615845924408952</v>
+        <v>0.0007079982885013136</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.773103490561226</v>
+        <v>0.8982974053208252</v>
       </c>
       <c r="J11">
-        <v>0.349087928938701</v>
+        <v>1.347015776097493</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.759262487474814</v>
+        <v>3.613242571012563</v>
       </c>
       <c r="M11">
-        <v>0.9356383698185056</v>
+        <v>1.807378399958722</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.069200420650191</v>
+        <v>3.801644390285617</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3986100640087216</v>
+        <v>1.509524316680313</v>
       </c>
       <c r="E12">
-        <v>0.3183665221715302</v>
+        <v>1.265940370067781</v>
       </c>
       <c r="F12">
-        <v>5.426523238668494</v>
+        <v>6.842867908436915</v>
       </c>
       <c r="G12">
-        <v>0.002613405793262906</v>
+        <v>0.0007025937401272166</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.769641151853328</v>
+        <v>0.9057324537346219</v>
       </c>
       <c r="J12">
-        <v>0.3579226480383397</v>
+        <v>1.389418907300467</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.779224317406204</v>
+        <v>3.726074551851696</v>
       </c>
       <c r="M12">
-        <v>0.9460047383996368</v>
+        <v>1.861536285501089</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.064426989430899</v>
+        <v>3.778730374137638</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3966763234338373</v>
+        <v>1.498426690893155</v>
       </c>
       <c r="E13">
-        <v>0.3166600988098196</v>
+        <v>1.257113533590243</v>
       </c>
       <c r="F13">
-        <v>5.42194740543033</v>
+        <v>6.801250983754926</v>
       </c>
       <c r="G13">
-        <v>0.002613929375612408</v>
+        <v>0.0007037611818087163</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.770379672268184</v>
+        <v>0.9040729773558027</v>
       </c>
       <c r="J13">
-        <v>0.3560196617370934</v>
+        <v>1.380226465315388</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.774918197149418</v>
+        <v>3.701610181517481</v>
       </c>
       <c r="M13">
-        <v>0.9437689082235607</v>
+        <v>1.849806224132422</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.048882860712297</v>
+        <v>3.704392603631106</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3903765771088104</v>
+        <v>1.462590334556694</v>
       </c>
       <c r="E14">
-        <v>0.3110977209281316</v>
+        <v>1.228572653699388</v>
       </c>
       <c r="F14">
-        <v>5.407125458721566</v>
+        <v>6.667097980537932</v>
       </c>
       <c r="G14">
-        <v>0.00261564429705872</v>
+        <v>0.0007075551709683144</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.772815419369913</v>
+        <v>0.8988832654408583</v>
       </c>
       <c r="J14">
-        <v>0.3498146460365774</v>
+        <v>1.350477739350765</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.760901617023364</v>
+        <v>3.622452807888749</v>
       </c>
       <c r="M14">
-        <v>0.9364897553946037</v>
+        <v>1.811804719202215</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.039379343142798</v>
+        <v>3.659148015342794</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3865228325013845</v>
+        <v>1.440902489230382</v>
       </c>
       <c r="E15">
-        <v>0.307692606172921</v>
+        <v>1.211271954600946</v>
       </c>
       <c r="F15">
-        <v>5.398123898293875</v>
+        <v>6.586090368148859</v>
       </c>
       <c r="G15">
-        <v>0.002616700432191975</v>
+        <v>0.0007098694822182111</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.77432831312359</v>
+        <v>0.8958701708878252</v>
       </c>
       <c r="J15">
-        <v>0.3460146689081114</v>
+        <v>1.33242563548842</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.752336451797078</v>
+        <v>3.574430811839079</v>
       </c>
       <c r="M15">
-        <v>0.9320405553417714</v>
+        <v>1.788715190992036</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.985189341355465</v>
+        <v>3.403920475482835</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3645140156714319</v>
+        <v>1.320264271522205</v>
       </c>
       <c r="E16">
-        <v>0.288208893602615</v>
+        <v>1.114639591279371</v>
       </c>
       <c r="F16">
-        <v>5.347717275051679</v>
+        <v>6.138183181090739</v>
       </c>
       <c r="G16">
-        <v>0.002622840266987935</v>
+        <v>0.0007230071617531067</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.783317738596693</v>
+        <v>0.8809537762201316</v>
       </c>
       <c r="J16">
-        <v>0.3242494960892941</v>
+        <v>1.231323935987518</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.703563268050232</v>
+        <v>3.305703150347199</v>
       </c>
       <c r="M16">
-        <v>0.9066887225358045</v>
+        <v>1.659015407957256</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.952186518965618</v>
+        <v>3.250583024359059</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3510778103673431</v>
+        <v>1.249136681272631</v>
       </c>
       <c r="E17">
-        <v>0.2762815529096656</v>
+        <v>1.057337412450678</v>
       </c>
       <c r="F17">
-        <v>5.317837471460507</v>
+        <v>5.876460025607344</v>
       </c>
       <c r="G17">
-        <v>0.002626685245838953</v>
+        <v>0.0007309775528299145</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.789116460941457</v>
+        <v>0.8737141961471835</v>
       </c>
       <c r="J17">
-        <v>0.3109060741729479</v>
+        <v>1.17114773261855</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.673916950369517</v>
+        <v>3.145986207790259</v>
       </c>
       <c r="M17">
-        <v>0.8912645507844701</v>
+        <v>1.581532895803946</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.933292476535428</v>
+        <v>3.163441418448087</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3433730124024805</v>
+        <v>1.209152232615281</v>
       </c>
       <c r="E18">
-        <v>0.2694301042243978</v>
+        <v>1.025013170980671</v>
       </c>
       <c r="F18">
-        <v>5.301031626929671</v>
+        <v>5.730185726068498</v>
       </c>
       <c r="G18">
-        <v>0.002628925688631005</v>
+        <v>0.0007355370079052866</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.792555620699829</v>
+        <v>0.8701860731304762</v>
       </c>
       <c r="J18">
-        <v>0.3032341461906185</v>
+        <v>1.137126622516689</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.656965074039192</v>
+        <v>3.055785136454858</v>
       </c>
       <c r="M18">
-        <v>0.8824398370779249</v>
+        <v>1.537643446872011</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.926910422122432</v>
+        <v>3.134106165281025</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3407682436353809</v>
+        <v>1.195762026446403</v>
       </c>
       <c r="E19">
-        <v>0.2671117978243416</v>
+        <v>1.014169820137951</v>
       </c>
       <c r="F19">
-        <v>5.295406471438014</v>
+        <v>5.681345990401979</v>
       </c>
       <c r="G19">
-        <v>0.002629689239783388</v>
+        <v>0.0007370771554449994</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.793737858563723</v>
+        <v>0.8690950252110099</v>
       </c>
       <c r="J19">
-        <v>0.3006370179234352</v>
+        <v>1.125701625424966</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.651242528431908</v>
+        <v>3.025511185066875</v>
       </c>
       <c r="M19">
-        <v>0.879459960440343</v>
+        <v>1.52289175016918</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.955690580611645</v>
+        <v>3.266794133576752</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3525056844835603</v>
+        <v>1.256609723249397</v>
       </c>
       <c r="E20">
-        <v>0.2775503134753023</v>
+        <v>1.063369736735538</v>
       </c>
       <c r="F20">
-        <v>5.320978806361751</v>
+        <v>5.90386864220855</v>
       </c>
       <c r="G20">
-        <v>0.002626272951219644</v>
+        <v>0.0007301318321952887</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.788488414231644</v>
+        <v>0.8744176595259887</v>
       </c>
       <c r="J20">
-        <v>0.3123262001780347</v>
+        <v>1.177490635082222</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.677062490673791</v>
+        <v>3.162811458935266</v>
       </c>
       <c r="M20">
-        <v>0.8929016232951454</v>
+        <v>1.589709163288177</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.053444855795021</v>
+        <v>3.726166106061044</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3922259126017877</v>
+        <v>1.473060554485158</v>
       </c>
       <c r="E21">
-        <v>0.3127311063009586</v>
+        <v>1.23691730344467</v>
       </c>
       <c r="F21">
-        <v>5.411462894934346</v>
+        <v>6.706255245743137</v>
       </c>
       <c r="G21">
-        <v>0.002615139396597033</v>
+        <v>0.0007064428466454507</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.772095617233838</v>
+        <v>0.9003725810995888</v>
       </c>
       <c r="J21">
-        <v>0.3516370460450275</v>
+        <v>1.359179608414109</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.765014370604433</v>
+        <v>3.645604854564624</v>
       </c>
       <c r="M21">
-        <v>0.9386258392716087</v>
+        <v>1.822926953103845</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.118124888788543</v>
+        <v>4.038969608119032</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4184086587806064</v>
+        <v>1.625923828417825</v>
       </c>
       <c r="E22">
-        <v>0.3358121877663933</v>
+        <v>1.358201341779093</v>
       </c>
       <c r="F22">
-        <v>5.474051356361997</v>
+        <v>7.281308812354723</v>
       </c>
       <c r="G22">
-        <v>0.00260811820665057</v>
+        <v>0.0006905522503714545</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.762317379202429</v>
+        <v>0.9245689829499995</v>
       </c>
       <c r="J22">
-        <v>0.3773625729341461</v>
+        <v>1.485280311178769</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.823406234252786</v>
+        <v>3.981286759563147</v>
       </c>
       <c r="M22">
-        <v>0.9689332239654362</v>
+        <v>1.983490226167177</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.083531187186281</v>
+        <v>3.870686321758456</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4044132510923362</v>
+        <v>1.543110539887891</v>
       </c>
       <c r="E23">
-        <v>0.3234848160397945</v>
+        <v>1.292621320348388</v>
       </c>
       <c r="F23">
-        <v>5.440327629693627</v>
+        <v>6.969021758815586</v>
       </c>
       <c r="G23">
-        <v>0.002611842302293347</v>
+        <v>0.0006990815830886097</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.767450115844809</v>
+        <v>0.9109024812117781</v>
       </c>
       <c r="J23">
-        <v>0.3636288947773494</v>
+        <v>1.417182343874941</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.792157092651223</v>
+        <v>3.799974058705175</v>
       </c>
       <c r="M23">
-        <v>0.9527184776652575</v>
+        <v>1.896927150673221</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.954106146091476</v>
+        <v>3.259461964005652</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3518600809194652</v>
+        <v>1.253228364476996</v>
       </c>
       <c r="E24">
-        <v>0.2769766890558429</v>
+        <v>1.060640614888712</v>
       </c>
       <c r="F24">
-        <v>5.319557449472001</v>
+        <v>5.8914642691756</v>
       </c>
       <c r="G24">
-        <v>0.002626459256317635</v>
+        <v>0.000730514251669865</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.788772025974403</v>
+        <v>0.8740976645110408</v>
       </c>
       <c r="J24">
-        <v>0.3116841632222247</v>
+        <v>1.174621238493984</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.675640104987338</v>
+        <v>3.155199762322468</v>
       </c>
       <c r="M24">
-        <v>0.8921613694234054</v>
+        <v>1.586010649556158</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.817873305011631</v>
+        <v>2.639552094853059</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.296056934676642</v>
+        <v>0.9751506589146857</v>
       </c>
       <c r="E25">
-        <v>0.22714263938893</v>
+        <v>0.8341037341555619</v>
       </c>
       <c r="F25">
-        <v>5.203786272845974</v>
+        <v>4.888679275068</v>
       </c>
       <c r="G25">
-        <v>0.002643332748179515</v>
+        <v>0.00076351698448196</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.815737149650822</v>
+        <v>0.858274187531066</v>
       </c>
       <c r="J25">
-        <v>0.2557578240414955</v>
+        <v>0.9350263777038492</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.553765317977394</v>
+        <v>2.521898101021151</v>
       </c>
       <c r="M25">
-        <v>0.828628536793758</v>
+        <v>1.275920273241439</v>
       </c>
       <c r="N25">
         <v>0</v>
